--- a/MarsQA-1/SpecflowTests/Data/Mars.xlsx
+++ b/MarsQA-1/SpecflowTests/Data/Mars.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23546d0de25dfd14/Documents/Mars/OnBoarding Task/Onboarding Task/Mars/MarsQA-1/SpecflowTests/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23546d0de25dfd14/Documents/Mars/OnBoarding Task/Advance Task/Mars/MarsQA-1/SpecflowTests/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_3E3AA520263A89AAFA20C4EC4F2A22DB7C496A7E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A82A234A-DEE2-4B1A-BFFD-21A118921132}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_3E3AA520263A89AAFA20C4EC4F2A22DB7C496A7E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4695022-1E6F-4EA9-A5E4-EEDA955FDBED}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="4960" windowWidth="16920" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="16920" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Sign Up" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -34,17 +35,41 @@
     <t>SydneyQa2018</t>
   </si>
   <si>
-    <t>Chef@123</t>
+    <t>garrydhallnz@gmail.com</t>
   </si>
   <si>
-    <t>garrydhallnz@gmail.com</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Confirm Pwd</t>
+  </si>
+  <si>
+    <t>Dhall</t>
+  </si>
+  <si>
+    <t>Gary1</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ajanta123@gmail.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +91,39 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,12 +139,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -313,7 +369,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -332,7 +388,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -341,10 +397,10 @@
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
@@ -1341,4 +1397,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E547A0-5D74-49ED-AE17-E8241EC115BA}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.9140625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6">
+        <v>9219637699</v>
+      </c>
+      <c r="E2" s="6">
+        <v>9219637699</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{701F148B-9DB0-420B-9AF0-9FC1749B4FD2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/MarsQA-1/SpecflowTests/Data/Mars.xlsx
+++ b/MarsQA-1/SpecflowTests/Data/Mars.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23546d0de25dfd14/Documents/Mars/OnBoarding Task/Advance Task/Mars/MarsQA-1/SpecflowTests/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_3E3AA520263A89AAFA20C4EC4F2A22DB7C496A7E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4695022-1E6F-4EA9-A5E4-EEDA955FDBED}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_3E3AA520263A89AAFA20C4EC4F2A22DB7C496A7E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08B0BB16-5FCA-4F0B-BE87-FDE6DD68AF21}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="16920" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="16920" windowHeight="9480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Sign Up" sheetId="2" r:id="rId2"/>
+    <sheet name="Profile" sheetId="3" r:id="rId2"/>
+    <sheet name="Sign Up" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -63,6 +64,24 @@
   </si>
   <si>
     <t>Test@123</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Part Time</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>EarnTarget</t>
+  </si>
+  <si>
+    <t>More than 30hours a week</t>
+  </si>
+  <si>
+    <t>Less than $500 per month</t>
   </si>
 </sst>
 </file>
@@ -106,7 +125,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +144,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -139,7 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -150,6 +175,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -368,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1400,6 +1426,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A971EFA-FA4A-4C45-B518-5A4316F51C4C}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E547A0-5D74-49ED-AE17-E8241EC115BA}">
   <dimension ref="A1:F2"/>
   <sheetViews>

--- a/MarsQA-1/SpecflowTests/Data/Mars.xlsx
+++ b/MarsQA-1/SpecflowTests/Data/Mars.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23546d0de25dfd14/Documents/Mars/OnBoarding Task/Advance Task/Mars/MarsQA-1/SpecflowTests/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_3E3AA520263A89AAFA20C4EC4F2A22DB7C496A7E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08B0BB16-5FCA-4F0B-BE87-FDE6DD68AF21}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_3E3AA520263A89AAFA20C4EC4F2A22DB7C496A7E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8BFB00A7-B3A7-4AF2-A47A-DC238B107D1F}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="16920" windowHeight="9480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="16920" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="Profile" sheetId="3" r:id="rId2"/>
-    <sheet name="Sign Up" sheetId="2" r:id="rId3"/>
+    <sheet name="Skills" sheetId="4" r:id="rId3"/>
+    <sheet name="Sign Up" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -82,6 +83,12 @@
   </si>
   <si>
     <t>Less than $500 per month</t>
+  </si>
+  <si>
+    <t>SkillName</t>
+  </si>
+  <si>
+    <t>C#</t>
   </si>
 </sst>
 </file>
@@ -394,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1429,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A971EFA-FA4A-4C45-B518-5A4316F51C4C}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1477,6 +1484,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F55D26-94C5-41B5-A402-8538748F3597}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E547A0-5D74-49ED-AE17-E8241EC115BA}">
   <dimension ref="A1:F2"/>
   <sheetViews>
